--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_12.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_12.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_12_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -988,4 +989,2345 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B232"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>邮箱</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>密码</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>字母</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>符号</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>验证码</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>电话号码</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>手机号</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>输入框</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>用户注册</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>邮箱地址</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>一键</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>格式</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>位</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>首次</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>有用</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>中文</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>视频</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>一遍</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>短信</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>帖子</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>特殊符号</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>分享</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>带有</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>空格</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>进去</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>关键</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>前面</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>纠正错误</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>无效</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>com</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>指导</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>浪费</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>持续</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>说</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>常见</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>位数</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>六位</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>过于</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>严格</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>额外</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>更长</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>组合</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>极大</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>时若</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>一分钟</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>彩色</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>最右</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>叉号</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>方便</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>字</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>却是</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>性</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>灰色</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>背景</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>黑白</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>完善</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>予以</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>便利性</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>开发者</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>修复</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>发表</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>其他软件</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>获得</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>兼容性</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>安全隐患</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>两次</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>键入</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>阻碍</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>软件缺陷</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>敏感</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>滥用</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>即可</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>再输</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>眼睛</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>周杰伦</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>欢迎</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>播放</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>完毕</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>引导</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>实际操作</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>小圆点</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>容易</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>小心</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>错</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>手机号码</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>十</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>写</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>以外</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>满足</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>键盘</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>仅能</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>切换</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>模式</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>十一个</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>至少</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>收不到</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_12.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_12.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,552 +437,846 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000007514</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>该软件在邮箱注册过程中存在严重的界面缺陷。当用户进入步骤2，尝试使用带有@符号的邮箱地址进行注册时，输入框似乎被设计为限制输入内容，导致无法键入任何字符，包括“@”符号及其后的部分。这显然阻碍了用户通过邮箱完成注册流程，严重影响了用户体验和软件的功能性。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>邮箱 注册 过程 严重 界面 缺陷 进入 带有 @ 符号 邮箱地址 进行 注册 输入框 设计 限制 输入 内容 无法 键入 字符 包括 @ 符号 部分 显然 阻碍 邮箱 完成 注册 严重 软件 功能性</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10010000007615</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>该图像显示了手机验证码输入界面，其中存在两个潜在的软件缺陷。首先，在用户尝试输入错误的验证码时，系统并未提供任何错误提示或安全警告，这可能导致用户的敏感信息被滥用的风险。其次，密码输入部分的设计存在严重问题，用户只输入一次密码即可完成注册，如果密码输入错误，用户将无法得知自己的错误并重新输入正确的密码。此外，系统未对两次输入的密码进行比对，可能存在安全隐患。这些问题都表明该应用在用户安全和操作便利性方面存在缺陷，需要开发者进行修复。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>手机 验证码 输入 界面 两个 潜在 软件缺陷 输入 错误 验证码 系统 并未 提供 错误 提示 安全 警告 敏感 信息 滥用 风险 密码 输入 部分 设计 严重 输入 一次 密码 即可 完成 注册 密码 输入 错误 无法 得知 错误 重新 输入 正确 密码 系统 未 两次 输入 密码 进行 安全隐患 表明 应用 安全 便利性 方面 缺陷 开发者 进行 修复</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000007651</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>发表帖子或者查看最新帖子时没有分享到其他其他软件的功能，若发现有用的信息只能注册后才能查看，非此软件注册用户无法获得好友在此软件分享的有用信息。</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>发表 帖子 查看 最新 帖子 没有 分享 其他软件 发现 有用 信息 只能 注册 查看 非 软件 注册 无法 获得 好友 软件 分享 有用 信息</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000007643</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>该注册界面的输入框仅支持数字，无法接受英文字符。这限制了用户的输入选项，可能导致用户体验不佳，并可能影响系统的兼容性和功能性。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>注册 界面 输入框 仅 支持 数字 无法 接受 英文 字符 限制 输入 选项 不佳 系统 兼容性 功能性</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000007892</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>该软件在用户尝试进行邮箱注册时存在一个明显的功能缺陷。具体问题为：当用户输入带有@符号的邮箱地址时，系统未能正确识别并提示相关的邮箱格式，也没有显示@符号，导致用户无法正确地输入邮箱地址。这给用户注册过程带来了不便，可能会影响用户体验和软件的整体满意度。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>进行 邮箱 注册 明显 缺陷 具体 输入 带有 @ 符号 邮箱地址 系统 未能 正确 识别 提示 相关 邮箱 格式 没有 @ 符号 无法 正确 输入 邮箱地址 用户注册 过程 带来 不便 软件 整体 满意度</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000008834</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>在注册界面，提醒用户可以选择手机注册或者邮箱注册，但是只能选择手机注册，邮箱注册功能没有实现。</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>注册 界面 提醒 选择 手机 注册 邮箱 注册 只能 选择 手机 注册 邮箱 注册 没有 实现</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000007895</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>首次使用进行注册（功能不完整）
 1.注册框只能输入11位数字满足手机号注册
 2.无法使用邮箱进行注册，例如无法输入@和字母</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>首次 进行 注册 完整 
  . 注册 框 只能 输入 11 位 数字 满足 手机号 注册 
  . 无法 邮箱 进行 注册 无法 输入 @ 字母</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000007951</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>在进入app进行注册账号时，系统提示允许使用手机号或邮箱注册。然而，当尝试使用邮箱进行注册时，发现无法完成此操作。键盘仅能切换到数字输入模式，并且在整个注册过程中，用户只能输入十一个数字。这种限制使得邮箱注册功能无法正常使用。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>进入 app 进行 注册 账号 系统 提示 允许 手机号 邮箱 注册 邮箱 进行 注册 发现 无法 完成 键盘 仅能 切换 数字 输入 模式 整个 注册 过程 只能 输入 十一个 数字 限制 邮箱 注册 无法 正常</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000008326</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>*必须选择至少一个好友才可以创建群聊，单独自己不可以；
 *成员退出群聊，群主收不到提醒；
 *注册时，不可以用邮箱注册，不可以输入数字以外的其他字符；</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>* 必须 选择 至少 好友 创建 群聊 单独 
  * 成员 退出 群聊 群主 收不到 提醒 
  * 注册 邮箱 注册 输入 数字 以外 字符</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000007984</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>注册杰迷吧的时候，提示可以用手机和邮箱注册，可是实际上邮箱并不能注册</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>注册 杰迷 提示 手机 邮箱 注册 实际上 邮箱 不能 注册</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000008005</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>写的有邮箱注册，但是无邮箱特殊符号@</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>写 邮箱 注册 邮箱 特殊符号 @</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000008404</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>在APP首次进入时，用户会看到周杰伦的欢迎视频。当视频播放完毕后，系统应引导用户进入“注册”页面，并提示用户输入电话号码或邮箱。但在实际操作中，该输入框仅允许数字输入，无法使用字母和特殊符号进行输入。这导致用户无法正常输入邮箱地址，只能选择使用手机号进行注册。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>APP 首次 进入 看到 周杰伦 欢迎 视频 视频 播放 完毕 系统 应 引导 进入 注册 页面 提示 输入 电话号码 邮箱 实际操作 输入框 仅 允许 数字 输入 无法 字母 特殊符号 进行 输入 无法 正常 输入 邮箱地址 只能 选择 手机号 进行 注册</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000008338</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>当使用手机号注册新的用户账号时，没有密码可见的小眼睛，输入密码时只有小圆点，无法查看到输入的具体密码。这样很容易使得用户注册时不小心打错密码的情况下不知情。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>手机号 注册 新 账号 没有 密码 眼睛 输入 密码 小圆点 无法 查看 输入 具体 密码 容易 用户注册 小心 错 密码 情况 不知情</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000008380</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>用户在使用手机号码注册新用户账号时，输入密码系统只提示输入一遍，而没有确认密码十用户再输一遍密码予以确认，密码的确认性不完善。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>手机号码 注册 新 账号 输入 密码 系统 提示 输入 一遍 没有 确认 密码 十 再输 一遍 密码 予以 确认 密码 确认 性 完善</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000008482</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>注册时收到的短信验证码输入后显示短信验证码不正确，不能使用手机号注册，严重影响APP的功能体验。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>注册 收到 短信 验证码 输入 短信 验证码 正确 不能 手机号 注册 严重 APP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000008596</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>注册用户时只能使用 数字  不能出现字符如@   以及字母等</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>注册 只能   数字     不能 出现 字符 @       字母</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000008227</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>注册时输入不进去@，无法用邮箱进行注册</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>注册 输入 进去 @ 无法 邮箱 进行 注册</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000008851</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>进行步骤1时，只能输入数字，无法输入字母和符号。所以无法完成注册。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>进行 只能 输入 数字 无法 输入 字母 符号 无法 完成 注册</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000008719</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>在注册页面无法使用邮箱进行注册</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>注册 页面 无法 邮箱 进行 注册</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000009472</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>注册页面提示可以使用邮箱注册，但是注册的时候不能输入字母。用邮箱注册的功能不能实现。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>注册 页面 提示 邮箱 注册 注册 不能 输入 字母 邮箱 注册 不能 实现</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000009727</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>输入字母时，不是存在该字母的提示并显示，而是把中文的也提示了出来；输入数字时，把所有的群组都显示了出来</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>输入 字母 字母 提示 中文 提示 输入 数字 群组</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000009919</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>输入数字、字母、中文、空格、符号查询群组时，输入数字、字母、空格不能查找显示对应的群组</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>输入 数字 字母 中文 空格 符号 查询 群组 输入 数字 字母 空格 不能 查找 对应 群组</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>10010000009323</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>在输入的电话号码或邮箱账号不正确时，系统未能提供准确的错误提醒。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>输入 电话号码 邮箱 账号 正确 系统 未能 提供 准确 错误 提醒</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000009357</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>该应用程序在用户注册过程中存在一个关键功能缺陷。当用户尝试使用一个无效的电话号码进行注册时，系统不会提供任何错误消息或提示来指导用户输入正确的格式。相反，系统会持续要求用户输入，直到提供一个有效的电话号码为止，导致用户可能浪费大量时间在尝试和纠正错误的电话号码上。</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>应用程序 用户注册 过程 关键 缺陷 无效 电话号码 进行 注册 系统 不会 提供 错误 消息 提示 指导 输入 正确 格式 相反 系统 持续 要求 输入 提供 有效 电话号码 浪费 大量 时间 纠正错误 电话号码</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>10010000007803</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>邮箱注册时，只能输入前面的数字，不能输入后面的“@qq.com”。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>邮箱 注册 只能 输入 前面 数字 不能 输入 后面 @ qq . com</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000007965</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>说可以用手机或邮箱注册，但输入框不接受任何字符输入，所以实际上无法完成邮箱注册。而且同时输入框最右没有一键删除所输入内容的叉号按钮，所以当用户想要一键删除输入内容时会很不方便</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>说 手机 邮箱 注册 输入框 接受 字符 输入 实际上 无法 完成 邮箱 注册 输入框 最右 没有 一键 删除 输入 内容 叉号 按钮 想要 一键 删除 输入 内容 时会 方便</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000007994</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>该注册界面存在一个明显的bug，即用户在尝试使用邮箱进行注册时无法完成操作。界面上虽然提供了输入电话号码和邮箱的字段，但似乎并未提供有效的反馈或提示，以告知用户当前操作状态或可能存在的问题。特别是“下一步”按钮目前为灰色，表明用户不能点击进入下一步，这可能是因为系统未能正确识别或处理用户输入的信息。此外，界面背景是黑白的，而注册信息部分却是彩色的，这可能引起用户的视觉混淆，影响用户体验。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>注册 界面 明显 邮箱 进行 注册 无法 完成 界面 提供 输入 电话号码 邮箱 字 段 并未 提供 有效 反馈 提示 告知 当前 状态 特别 一步 按钮 目前 灰色 表明 不能 点击 进入 一步 是因为 系统 未能 正确 识别 处理 输入 信息 界面 背景 黑白 注册 信息 部分 却是 彩色 引起 视觉 混淆</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000008277</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>当用手机号注册新用户账号的时候，注册时验证码位数过长，不是一般APP的六位数字，影响用户体验。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>手机号 注册 新 账号 注册 验证码 位数 过长 APP 六位 数字</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000009617</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>该注册界面的输入限制过于严格，仅允许11位数字输入，不允许包含@符号和额外的数字。这样的设计导致用户在尝试使用其他常见字符或更长的数字组合时无法进行注册，从而极大地影响了用户体验。</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>注册 界面 输入 限制 过于 严格 仅 允许 11 位 数字 输入 允许 包含 @ 符号 额外 数字 设计 常见 字符 更长 数字 组合 无法 进行 注册 极大</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000009466</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>注册账号时若输入字符无法显示，将导致无法用邮箱注册</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>注册 账号 时若 输入 字符 无法 无法 邮箱 注册</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000009916</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>用户注册接收验证码是出现一分钟内不得重复请求验证码。不利于用户快速注册。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>用户注册 接收 验证码 出现 一分钟 重复 请求 验证码 不利于 快速 注册</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
